--- a/2020/September/All Details/02.09.2020/MC Bank Statement Sep-2020.xlsx
+++ b/2020/September/All Details/02.09.2020/MC Bank Statement Sep-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="August 2020" sheetId="7" r:id="rId1"/>
@@ -2765,6 +2765,9 @@
     <xf numFmtId="2" fontId="39" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2849,6 +2852,30 @@
     <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2879,38 +2906,11 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3015,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3038,14 +3038,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3082,7 +3082,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3094,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3117,14 +3117,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3479,7 +3479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -3501,21 +3501,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="36" t="s">
@@ -4580,24 +4580,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="301" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="302"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="303"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="305"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="306"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -4658,7 +4658,7 @@
       <c r="A4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="346">
+      <c r="B4" s="298">
         <v>8500368</v>
       </c>
       <c r="C4" s="69"/>
@@ -5075,13 +5075,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="306" t="s">
+      <c r="A15" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="307"/>
-      <c r="C15" s="307"/>
-      <c r="D15" s="307"/>
-      <c r="E15" s="308"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="309"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="28"/>
@@ -10269,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10295,14 +10295,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
       <c r="L1" s="110"/>
       <c r="M1" s="111"/>
       <c r="N1" s="111"/>
@@ -10355,14 +10355,14 @@
       <c r="BI1" s="111"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="317" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
+      <c r="B2" s="317"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
       <c r="L2" s="110"/>
       <c r="M2" s="111"/>
       <c r="N2" s="111"/>
@@ -10415,14 +10415,14 @@
       <c r="BI2" s="111"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="318" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
       <c r="K3" s="111"/>
       <c r="L3" s="110"/>
       <c r="M3" s="111"/>
@@ -12620,12 +12620,12 @@
       <c r="BI34" s="111"/>
     </row>
     <row r="35" spans="1:61" ht="12.6" customHeight="1" thickBot="1">
-      <c r="A35" s="318" t="s">
+      <c r="A35" s="319" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="320"/>
+      <c r="B35" s="320"/>
+      <c r="C35" s="320"/>
+      <c r="D35" s="321"/>
       <c r="E35" s="127"/>
       <c r="F35" s="129"/>
       <c r="G35" s="143"/>
@@ -12699,11 +12699,11 @@
       </c>
       <c r="E36" s="156">
         <f>F33-C113+K136</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F36" s="157">
         <f>F33-C113-I43-I42+K136-C118</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G36" s="143"/>
       <c r="H36" s="151"/>
@@ -13192,13 +13192,13 @@
       <c r="C43" s="121"/>
       <c r="D43" s="114"/>
       <c r="E43" s="127"/>
-      <c r="F43" s="321" t="s">
+      <c r="F43" s="322" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="322"/>
-      <c r="H43" s="322"/>
-      <c r="I43" s="322"/>
-      <c r="J43" s="323"/>
+      <c r="G43" s="323"/>
+      <c r="H43" s="323"/>
+      <c r="I43" s="323"/>
+      <c r="J43" s="324"/>
       <c r="K43" s="174"/>
       <c r="L43" s="118"/>
       <c r="M43" s="111"/>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="B52" s="191"/>
       <c r="C52" s="196">
-        <v>199630</v>
+        <v>189630</v>
       </c>
       <c r="D52" s="186" t="s">
         <v>36</v>
@@ -14246,10 +14246,10 @@
       <c r="BI58" s="111"/>
     </row>
     <row r="59" spans="1:61" ht="12" customHeight="1">
-      <c r="A59" s="324" t="s">
+      <c r="A59" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="325"/>
+      <c r="B59" s="326"/>
       <c r="C59" s="190"/>
       <c r="D59" s="194"/>
       <c r="E59" s="126"/>
@@ -14462,10 +14462,10 @@
         <v>85</v>
       </c>
       <c r="E62" s="135"/>
-      <c r="F62" s="309" t="s">
+      <c r="F62" s="310" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="309"/>
+      <c r="G62" s="310"/>
       <c r="H62" s="198"/>
       <c r="I62" s="198"/>
       <c r="J62" s="199" t="s">
@@ -18472,13 +18472,13 @@
       <c r="BI112" s="111"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="310" t="s">
+      <c r="A113" s="311" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="311"/>
+      <c r="B113" s="312"/>
       <c r="C113" s="218">
         <f>SUM(C37:C112)</f>
-        <v>2111068</v>
+        <v>2101068</v>
       </c>
       <c r="D113" s="219"/>
       <c r="F113" s="209"/>
@@ -18623,13 +18623,13 @@
       <c r="BI114" s="111"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="312" t="s">
+      <c r="A115" s="313" t="s">
         <v>161</v>
       </c>
-      <c r="B115" s="313"/>
+      <c r="B115" s="314"/>
       <c r="C115" s="223">
         <f>C113+L136</f>
-        <v>2111068</v>
+        <v>2101068</v>
       </c>
       <c r="D115" s="224"/>
       <c r="F115" s="202"/>
@@ -20609,8 +20609,8 @@
       <c r="J169" s="110"/>
     </row>
     <row r="170" spans="5:13">
-      <c r="F170" s="314"/>
-      <c r="G170" s="314"/>
+      <c r="F170" s="315"/>
+      <c r="G170" s="315"/>
       <c r="H170" s="111"/>
       <c r="I170" s="133"/>
       <c r="J170" s="110"/>
@@ -21260,94 +21260,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="335" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
     </row>
     <row r="2" spans="1:26" s="245" customFormat="1" ht="18">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="336" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="327"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="327"/>
-      <c r="S2" s="327"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
     </row>
     <row r="3" spans="1:26" s="245" customFormat="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
+      <c r="Q3" s="337"/>
+      <c r="R3" s="337"/>
+      <c r="S3" s="337"/>
     </row>
     <row r="4" spans="1:26" s="246" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="338" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="331"/>
+      <c r="B4" s="339"/>
+      <c r="C4" s="339"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="339"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="339"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="339"/>
+      <c r="M4" s="339"/>
+      <c r="N4" s="339"/>
+      <c r="O4" s="339"/>
+      <c r="P4" s="339"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="339"/>
+      <c r="S4" s="340"/>
       <c r="U4" s="127"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -21356,58 +21356,58 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="248" customFormat="1">
-      <c r="A5" s="332" t="s">
+      <c r="A5" s="341" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="334" t="s">
+      <c r="B5" s="343" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="336" t="s">
+      <c r="C5" s="329" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="336" t="s">
+      <c r="D5" s="329" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="336" t="s">
+      <c r="E5" s="329" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="336" t="s">
+      <c r="F5" s="329" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="336" t="s">
+      <c r="G5" s="329" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="336" t="s">
+      <c r="H5" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="336" t="s">
+      <c r="I5" s="329" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="336" t="s">
+      <c r="J5" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="336" t="s">
+      <c r="K5" s="329" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="336" t="s">
+      <c r="L5" s="329" t="s">
         <v>175</v>
       </c>
-      <c r="M5" s="336" t="s">
+      <c r="M5" s="329" t="s">
         <v>176</v>
       </c>
-      <c r="N5" s="336" t="s">
+      <c r="N5" s="329" t="s">
         <v>177</v>
       </c>
-      <c r="O5" s="340" t="s">
+      <c r="O5" s="331" t="s">
         <v>178</v>
       </c>
-      <c r="P5" s="342" t="s">
+      <c r="P5" s="333" t="s">
         <v>179</v>
       </c>
-      <c r="Q5" s="344" t="s">
+      <c r="Q5" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="338" t="s">
+      <c r="R5" s="345" t="s">
         <v>180</v>
       </c>
       <c r="S5" s="247" t="s">
@@ -21420,24 +21420,24 @@
       <c r="Y5" s="250"/>
     </row>
     <row r="6" spans="1:26" s="248" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="333"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="341"/>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="339"/>
+      <c r="A6" s="342"/>
+      <c r="B6" s="344"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="330"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="330"/>
+      <c r="L6" s="330"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="330"/>
+      <c r="O6" s="332"/>
+      <c r="P6" s="334"/>
+      <c r="Q6" s="328"/>
+      <c r="R6" s="346"/>
       <c r="S6" s="252" t="s">
         <v>181</v>
       </c>
@@ -24421,12 +24421,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -24443,6 +24437,12 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
